--- a/users.xlsx
+++ b/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbook/Projects/personal_work/Shop_n_Deliver_Limited/Shop_N_deliver_web/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CB8E3D-8E67-DD4F-B23D-880F99C508A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85D96D7-EF87-0846-99C1-8C96E3C4FACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{4DC866F5-3371-1D4F-BACD-999253BB973D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>phone_number</t>
   </si>
@@ -50,10 +50,7 @@
     <t>Test123</t>
   </si>
   <si>
-    <t>0113035065</t>
-  </si>
-  <si>
-    <t>0734959126</t>
+    <t>0735638271</t>
   </si>
 </sst>
 </file>
@@ -406,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F6F758-171E-5E4A-97E7-ACB2F1681F0E}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,16 +434,8 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
+      <c r="B3" s="1">
+        <v>2020</v>
       </c>
     </row>
   </sheetData>
